--- a/medicine/Enfance/Gilles_Bachelet/Gilles_Bachelet.xlsx
+++ b/medicine/Enfance/Gilles_Bachelet/Gilles_Bachelet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilles Bachelet est un auteur et illustrateur français de littérature jeunesse né le 5 septembre 1952 à Saint-Quentin.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1952 dans l’Aisne, Gilles Bachelet passe les premières années de son enfance près d’Oloron-Sainte-Marie, dans les Pyrénées. En 1971, il s’inscrit en Faculté d’arts plastiques à Paris tout en préparant le concours de l’École nationale supérieure des arts décoratifs. Il y passera cinq ans avec une parenthèse de quelques mois en tant que directeur artistique dans un bureau d’études à Téhéran. À partir de 1977, il commence à démarcher la presse. Son premier travail sera une couverture pour le magazine L'Expansion. Les commandes affluant, il quitte les Arts Déco (sans diplôme) pour le monde du travail.
 Depuis, il exerce la profession d’illustrateur indépendant pour la presse, l’édition et la publicité. Il collabore à de nombreux magazines (L'Express, Lire, Marie Claire, L'Expansion, Science et Vie, Okapi, J'aime lire, Youpi, etc.) et illustre des ouvrages chez différents éditeurs comme Le Seuil, Nathan, Hachette, Presses de la Cité, Harlin Quist.
 Depuis 2001, il enseigne l’illustration et les techniques d’édition à l’École supérieure d'art de Cambrai et réalise des albums.
-Durant l'hiver 2006–2007, la bibliothèque Marmottan à Boulogne-Billancourt a présenté une exposition intitulée « Champignon Bonaparte de Gilles Bachelet »[1].
+Durant l'hiver 2006–2007, la bibliothèque Marmottan à Boulogne-Billancourt a présenté une exposition intitulée « Champignon Bonaparte de Gilles Bachelet ».
 En 2016, à la médiathèque Roger Gouhier de Noisy-le-Sec, a été organisée une exposition d'originaux, avec une visite de Gilles Bachelet.
-Il est membre de la Charte des auteurs et des illustrateurs jeunesse[2].
-En 2022[3] et 2024[4], il est l'illustrateur français sélectionné pour le prestigieux prix Hans-Christian-Andersen.
-En 2024, il est sélectionné pour la troisième année d'affilée pour le prestigieux prix suédois, le prix commémoratif Astrid-Lindgren[5].
+Il est membre de la Charte des auteurs et des illustrateurs jeunesse.
+En 2022 et 2024, il est l'illustrateur français sélectionné pour le prestigieux prix Hans-Christian-Andersen.
+En 2024, il est sélectionné pour la troisième année d'affilée pour le prestigieux prix suédois, le prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ice Dream, Crapule Productions, 1984, puis Harlin Quist, 1998.
 Hôtel des voyageurs, Crapule, 1986, puis Seuil Jeunesse, 2005  (ISBN 2020787962).
@@ -593,9 +609,11 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de l'ordre des Arts et des Lettres 2013[6]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de l'ordre des Arts et des Lettres 2013</t>
         </is>
       </c>
     </row>
@@ -623,20 +641,22 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Grand prix jeunesse de la Société des gens de lettres pour Le singe à Buffon 2003[7]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Grand prix jeunesse de la Société des gens de lettres pour Le singe à Buffon 2003
 Prix du salon jeunesse de Saint-Étienne pour Mon chat le plus bête du monde en 2004.
-Prix Baobab du Salon du livre et de la presse jeunesse de Montreuil pour Mon chat le plus bête du monde en 2004[8]
-Prix Cadet de la fondation du Mouvement pour les villages d'enfants pour Mon chat le plus bête du monde en 2005[9]
-Prix du salon jeunesse de Cherbourg-Octeville pour Mon chat le plus bête du monde en 2006[10]
+Prix Baobab du Salon du livre et de la presse jeunesse de Montreuil pour Mon chat le plus bête du monde en 2004
+Prix Cadet de la fondation du Mouvement pour les villages d'enfants pour Mon chat le plus bête du monde en 2005
+Prix du salon jeunesse de Cherbourg-Octeville pour Mon chat le plus bête du monde en 2006
  Prix Bernard Versele pour Mon chat le plus bête du monde en 2007
-Prix Graoully pour Il n'y a pas d'autruches dans les contes de fées en 2009[11]
-Pépite de l'album au salon du livre et de la presse jeunesse de Montreuil (anciennement Prix Baobab) pour Madame le Lapin Blanc en 2012[12]
- Prix Andersen (Italie) pour Le Chevalier de Ventre-à-Terre en 2016[13]
-Prix La Grande Ourse du Salon du livre et de la presse jeunesse de Montreuil pour l'ensemble de son œuvre en 2019[14]
- Sélection Prix Hans-Christian-Andersen 2022[3] et 2024[4] dans la catégorie Illustration
- Sélection pour le Prix commémoratif Astrid-Lindgren 2022, 2023 et 2024[5]</t>
+Prix Graoully pour Il n'y a pas d'autruches dans les contes de fées en 2009
+Pépite de l'album au salon du livre et de la presse jeunesse de Montreuil (anciennement Prix Baobab) pour Madame le Lapin Blanc en 2012
+ Prix Andersen (Italie) pour Le Chevalier de Ventre-à-Terre en 2016
+Prix La Grande Ourse du Salon du livre et de la presse jeunesse de Montreuil pour l'ensemble de son œuvre en 2019
+ Sélection Prix Hans-Christian-Andersen 2022 et 2024 dans la catégorie Illustration
+ Sélection pour le Prix commémoratif Astrid-Lindgren 2022, 2023 et 2024</t>
         </is>
       </c>
     </row>
